--- a/biology/Médecine/Période_d'incubation/Période_d'incubation.xlsx
+++ b/biology/Médecine/Période_d'incubation/Période_d'incubation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9riode_d%27incubation</t>
+          <t>Période_d'incubation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle période d’incubation le délai entre la contamination et l’apparition des premiers symptômes d'une maladie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9riode_d%27incubation</t>
+          <t>Période_d'incubation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait des variations inter-individus, les périodes d'incubations sont toujours sous la forme d'intervalles. Lorsque c'est possible, il est mieux de l'exprimer par la moyenne entre les 10e et 90e centiles, mais cette information n'est pas toujours disponible.
 Dans beaucoup de cas, les périodes d'incubation sont plus longues chez l'adulte que chez l'enfant ou le nourrisson.
